--- a/src/test/java/TestData/TestDataFile.xlsx
+++ b/src/test/java/TestData/TestDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Framework\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D7846-8D83-4A4B-8BEF-0738DCB99D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E164D-D999-45DD-92AE-D7F8D7149411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>First Name</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Singh</t>
+  </si>
+  <si>
+    <t>Sauce lab bagpack add to cart</t>
+  </si>
+  <si>
+    <t>add-to-cart-sauce-labs-backpack</t>
   </si>
 </sst>
 </file>
@@ -388,36 +394,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.109375" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
